--- a/Data/stock/result.xlsx
+++ b/Data/stock/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>e1</t>
   </si>
@@ -54,6 +54,12 @@
   <si>
     <t>2138 - 2329, length: 192
 2948 - 3509, length: 562</t>
+  </si>
+  <si>
+    <t>Hot Sax</t>
+  </si>
+  <si>
+    <t>2956 (600) 10</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +515,12 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
